--- a/Mifos Automation Excels/Loan Product/727-MS-EPP-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/727-MS-EPP-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>productname</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Penalties, Fees, Interest, Principal order</t>
+  </si>
+  <si>
+    <t>allowPartialPeriodInterestCalcualtion</t>
   </si>
 </sst>
 </file>
@@ -601,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" activeCellId="1" sqref="B17 B17"/>
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -757,185 +760,193 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
+      <c r="A21" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B28" s="5">
         <v>10000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="5">
-        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Loan Product/727-MS-EPP-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/727-MS-EPP-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="180" yWindow="2955" windowWidth="19050" windowHeight="5580"/>
   </bookViews>
   <sheets>
-    <sheet name="ProductLoan_Input" sheetId="6" r:id="rId1"/>
-    <sheet name="ProductLoan_Output" sheetId="7" r:id="rId2"/>
+    <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
+    <sheet name="ProductLoanOutput" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>productname</t>
   </si>
@@ -119,9 +119,6 @@
     <t>nominalinterestratedefault</t>
   </si>
   <si>
-    <t>maximumallowedaoutstandingbalance</t>
-  </si>
-  <si>
     <t>preclosureinterestcalculationrule</t>
   </si>
   <si>
@@ -210,6 +207,15 @@
   </si>
   <si>
     <t>Calculate till rest frequency date</t>
+  </si>
+  <si>
+    <t>accrualperiodic</t>
+  </si>
+  <si>
+    <t>verifyloanproduct</t>
+  </si>
+  <si>
+    <t>maximumallowedoutstandingbalancefortranchloan</t>
   </si>
 </sst>
 </file>
@@ -267,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -287,6 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -608,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -718,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -734,7 +741,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -742,7 +749,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -771,10 +778,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -798,23 +805,23 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="5">
+        <v>30</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="5">
         <v>10000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -826,99 +833,107 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>36</v>
+      <c r="A29" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -931,9 +946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -943,10 +956,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/727-MS-EPP-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/727-MS-EPP-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -660,7 +660,7 @@
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Loan Product/727-MS-EPP-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/727-MS-EPP-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
@@ -194,9 +194,6 @@
     <t>overpaymentliability</t>
   </si>
   <si>
-    <t>Mifos style</t>
-  </si>
-  <si>
     <t>Equal principal payments</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>maximumallowedoutstandingbalancefortranchloan</t>
+  </si>
+  <si>
+    <t>Penalties, Fees, Interest, Principal order</t>
   </si>
 </sst>
 </file>
@@ -273,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -294,6 +294,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,7 +604,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B17" activeCellId="1" sqref="B17 B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -615,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -725,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -740,8 +743,8 @@
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>59</v>
+      <c r="B17" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -749,7 +752,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -781,7 +784,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -805,7 +808,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -818,7 +821,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="5">
         <v>10000</v>
@@ -834,7 +837,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>8</v>
@@ -956,10 +959,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
